--- a/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7_EQ组.xlsx
+++ b/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7_EQ组.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shixinxin/DataCode/GitDoc/Mogo_Doc/VersionRecords/Version 5.3.7 20170406/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="2700" windowWidth="35780" windowHeight="15820"/>
+    <workbookView xWindow="29880" yWindow="2700" windowWidth="35775" windowHeight="15825"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.7 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,7 +24,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -42,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="87">
   <si>
     <t>No</t>
   </si>
@@ -328,12 +323,36 @@
   <si>
     <t>FYPX-17</t>
   </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘俊岐/吴永余</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>teleapi</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter、renterpc、rentertp、BS、LTS</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -471,7 +490,7 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -976,6 +995,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1001,12 +1026,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1024,9 +1043,9 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="个性色4" xfId="11" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="11" builtinId="41"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1037,11 +1056,9 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf/>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1381,40 +1398,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="47" customWidth="1"/>
-    <col min="2" max="3" width="9.83203125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="48" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
+    <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="48" customWidth="1"/>
     <col min="5" max="5" width="15" style="47" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="47" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="47" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="48" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="47" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="48" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="48" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="47" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="47" customWidth="1"/>
-    <col min="14" max="15" width="11.33203125" style="47" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="47" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="47" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="48" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="47" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="48" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="47" customWidth="1"/>
+    <col min="13" max="13" width="15.875" style="47" customWidth="1"/>
+    <col min="14" max="15" width="11.375" style="47" customWidth="1"/>
     <col min="16" max="16" width="10" style="48" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="48" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="48" customWidth="1"/>
+    <col min="18" max="18" width="7.625" style="48" customWidth="1"/>
     <col min="19" max="20" width="12" style="49" customWidth="1"/>
     <col min="21" max="21" width="17" style="49" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" style="49" customWidth="1"/>
-    <col min="23" max="23" width="41.83203125" style="48" customWidth="1"/>
-    <col min="24" max="24" width="8.83203125" customWidth="1"/>
+    <col min="22" max="22" width="14.125" style="49" customWidth="1"/>
+    <col min="23" max="23" width="41.875" style="48" customWidth="1"/>
+    <col min="24" max="24" width="8.875" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="45" customFormat="1" ht="27">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="51">
         <v>1</v>
       </c>
@@ -1495,13 +1512,15 @@
       <c r="C2" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="78" t="s">
         <v>70</v>
       </c>
       <c r="E2" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="58" t="s">
+        <v>85</v>
+      </c>
       <c r="G2" s="58" t="s">
         <v>72</v>
       </c>
@@ -1515,7 +1534,7 @@
         <v>42831</v>
       </c>
       <c r="K2" s="58"/>
-      <c r="L2" s="88" t="s">
+      <c r="L2" s="79" t="s">
         <v>73</v>
       </c>
       <c r="M2" s="58" t="s">
@@ -1524,10 +1543,18 @@
       <c r="N2" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="62"/>
+      <c r="O2" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="59">
+        <v>42831</v>
+      </c>
+      <c r="R2" s="62" t="s">
+        <v>83</v>
+      </c>
       <c r="S2" s="68" t="s">
         <v>79</v>
       </c>
@@ -1537,7 +1564,7 @@
       <c r="W2" s="72"/>
       <c r="X2" s="73"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="51">
         <v>2</v>
       </c>
@@ -1547,13 +1574,15 @@
       <c r="C3" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="78" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="58" t="s">
+        <v>86</v>
+      </c>
       <c r="G3" s="58" t="s">
         <v>72</v>
       </c>
@@ -1567,7 +1596,7 @@
         <v>42829</v>
       </c>
       <c r="K3" s="58"/>
-      <c r="L3" s="88" t="s">
+      <c r="L3" s="79" t="s">
         <v>77</v>
       </c>
       <c r="M3" s="58" t="s">
@@ -1576,10 +1605,18 @@
       <c r="N3" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="62"/>
+      <c r="O3" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" s="59">
+        <v>42831</v>
+      </c>
+      <c r="R3" s="62" t="s">
+        <v>83</v>
+      </c>
       <c r="S3" s="68" t="s">
         <v>80</v>
       </c>
@@ -1589,7 +1626,7 @@
       <c r="W3" s="72"/>
       <c r="X3" s="73"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="51"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
@@ -1615,7 +1652,7 @@
       <c r="W4" s="72"/>
       <c r="X4" s="73"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -1641,7 +1678,7 @@
       <c r="W5" s="74"/>
       <c r="X5" s="73"/>
     </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -1667,7 +1704,7 @@
       <c r="W6" s="74"/>
       <c r="X6" s="73"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -1693,7 +1730,7 @@
       <c r="W7" s="74"/>
       <c r="X7" s="73"/>
     </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -1719,7 +1756,7 @@
       <c r="W8" s="74"/>
       <c r="X8" s="73"/>
     </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -1745,7 +1782,7 @@
       <c r="W9" s="74"/>
       <c r="X9" s="73"/>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -1771,7 +1808,7 @@
       <c r="W10" s="74"/>
       <c r="X10" s="73"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -1797,7 +1834,7 @@
       <c r="W11" s="74"/>
       <c r="X11" s="73"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -1823,7 +1860,7 @@
       <c r="W12" s="74"/>
       <c r="X12" s="73"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -1849,7 +1886,7 @@
       <c r="W13" s="74"/>
       <c r="X13" s="73"/>
     </row>
-    <row r="14" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
@@ -1875,7 +1912,7 @@
       <c r="W14" s="74"/>
       <c r="X14" s="73"/>
     </row>
-    <row r="15" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -1901,7 +1938,7 @@
       <c r="W15" s="74"/>
       <c r="X15" s="73"/>
     </row>
-    <row r="16" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -1927,7 +1964,7 @@
       <c r="W16" s="74"/>
       <c r="X16" s="73"/>
     </row>
-    <row r="17" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -1953,7 +1990,7 @@
       <c r="W17" s="75"/>
       <c r="X17" s="73"/>
     </row>
-    <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" ht="16.5">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -1978,7 +2015,7 @@
       <c r="V18" s="56"/>
       <c r="W18" s="57"/>
     </row>
-    <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" ht="16.5">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -2003,7 +2040,7 @@
       <c r="V19" s="56"/>
       <c r="W19" s="57"/>
     </row>
-    <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" ht="16.5">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -2028,7 +2065,7 @@
       <c r="V20" s="56"/>
       <c r="W20" s="57"/>
     </row>
-    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="16.5">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -2053,7 +2090,7 @@
       <c r="V21" s="56"/>
       <c r="W21" s="74"/>
     </row>
-    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="16.5">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -2078,7 +2115,7 @@
       <c r="V22" s="56"/>
       <c r="W22" s="74"/>
     </row>
-    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" ht="16.5">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -2103,7 +2140,7 @@
       <c r="V23" s="56"/>
       <c r="W23" s="74"/>
     </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="16.5">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2128,7 +2165,7 @@
       <c r="V24" s="70"/>
       <c r="W24" s="76"/>
     </row>
-    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="16.5">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -2153,7 +2190,7 @@
       <c r="V25" s="71"/>
       <c r="W25" s="76"/>
     </row>
-    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="16.5">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2178,7 +2215,7 @@
       <c r="V26" s="77"/>
       <c r="W26" s="76"/>
     </row>
-    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="16.5">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -2203,7 +2240,7 @@
       <c r="V27" s="71"/>
       <c r="W27" s="76"/>
     </row>
-    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="16.5">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -2228,7 +2265,7 @@
       <c r="V28" s="71"/>
       <c r="W28" s="76"/>
     </row>
-    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="16.5">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -2253,7 +2290,7 @@
       <c r="V29" s="69"/>
       <c r="W29" s="62"/>
     </row>
-    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="16.5">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -2278,7 +2315,7 @@
       <c r="V30" s="56"/>
       <c r="W30" s="74"/>
     </row>
-    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="16.5">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -2303,7 +2340,7 @@
       <c r="V31" s="56"/>
       <c r="W31" s="74"/>
     </row>
-    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="16.5">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2328,7 +2365,7 @@
       <c r="V32" s="56"/>
       <c r="W32" s="74"/>
     </row>
-    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -2353,7 +2390,7 @@
       <c r="V33" s="71"/>
       <c r="W33" s="76"/>
     </row>
-    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -2378,7 +2415,7 @@
       <c r="V34" s="56"/>
       <c r="W34" s="72"/>
     </row>
-    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -2403,7 +2440,7 @@
       <c r="V35" s="56"/>
       <c r="W35" s="74"/>
     </row>
-    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -2428,7 +2465,7 @@
       <c r="V36" s="56"/>
       <c r="W36" s="74"/>
     </row>
-    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -2453,7 +2490,7 @@
       <c r="V37" s="56"/>
       <c r="W37" s="74"/>
     </row>
-    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="16.5">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -2478,7 +2515,7 @@
       <c r="V38" s="56"/>
       <c r="W38" s="74"/>
     </row>
-    <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="16.5">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -2503,7 +2540,7 @@
       <c r="V39" s="56"/>
       <c r="W39" s="74"/>
     </row>
-    <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="16.5">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -2528,7 +2565,7 @@
       <c r="V40" s="56"/>
       <c r="W40" s="74"/>
     </row>
-    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="16.5">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -2553,7 +2590,7 @@
       <c r="V41" s="56"/>
       <c r="W41" s="74"/>
     </row>
-    <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="16.5">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -2578,7 +2615,7 @@
       <c r="V42" s="56"/>
       <c r="W42" s="74"/>
     </row>
-    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -2603,7 +2640,7 @@
       <c r="V43" s="56"/>
       <c r="W43" s="74"/>
     </row>
-    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="16.5">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -2628,7 +2665,7 @@
       <c r="V44" s="56"/>
       <c r="W44" s="74"/>
     </row>
-    <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="16.5">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -2653,7 +2690,7 @@
       <c r="V45" s="69"/>
       <c r="W45" s="74"/>
     </row>
-    <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="16.5">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -2678,7 +2715,7 @@
       <c r="V46" s="69"/>
       <c r="W46" s="74"/>
     </row>
-    <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="16.5">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -2703,7 +2740,7 @@
       <c r="V47" s="56"/>
       <c r="W47" s="57"/>
     </row>
-    <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="16.5">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -2728,7 +2765,7 @@
       <c r="V48" s="56"/>
       <c r="W48" s="57"/>
     </row>
-    <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="16.5">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -2753,7 +2790,7 @@
       <c r="V49" s="56"/>
       <c r="W49" s="57"/>
     </row>
-    <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="16.5">
       <c r="A50" s="51"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -2778,7 +2815,7 @@
       <c r="V50" s="56"/>
       <c r="W50" s="57"/>
     </row>
-    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="16.5">
       <c r="A51" s="51"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -2803,7 +2840,7 @@
       <c r="V51" s="56"/>
       <c r="W51" s="57"/>
     </row>
-    <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="16.5">
       <c r="A52" s="51"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -2828,7 +2865,7 @@
       <c r="V52" s="56"/>
       <c r="W52" s="57"/>
     </row>
-    <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="16.5">
       <c r="A53" s="51"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -2853,7 +2890,7 @@
       <c r="V53" s="56"/>
       <c r="W53" s="57"/>
     </row>
-    <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="16.5">
       <c r="A54" s="56"/>
       <c r="B54" s="56"/>
       <c r="C54" s="56"/>
@@ -2878,7 +2915,7 @@
       <c r="V54" s="56"/>
       <c r="W54" s="57"/>
     </row>
-    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="16.5">
       <c r="A55" s="56"/>
       <c r="B55" s="56"/>
       <c r="C55" s="56"/>
@@ -2903,7 +2940,7 @@
       <c r="V55" s="56"/>
       <c r="W55" s="57"/>
     </row>
-    <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="16.5">
       <c r="A56" s="56"/>
       <c r="B56" s="56"/>
       <c r="C56" s="56"/>
@@ -2928,7 +2965,7 @@
       <c r="V56" s="56"/>
       <c r="W56" s="57"/>
     </row>
-    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="16.5">
       <c r="A57" s="56"/>
       <c r="B57" s="56"/>
       <c r="C57" s="56"/>
@@ -2953,7 +2990,7 @@
       <c r="V57" s="56"/>
       <c r="W57" s="57"/>
     </row>
-    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="16.5">
       <c r="A58" s="56"/>
       <c r="B58" s="56"/>
       <c r="C58" s="56"/>
@@ -2978,7 +3015,7 @@
       <c r="V58" s="56"/>
       <c r="W58" s="57"/>
     </row>
-    <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="16.5">
       <c r="A59" s="56"/>
       <c r="B59" s="56"/>
       <c r="C59" s="56"/>
@@ -3003,7 +3040,7 @@
       <c r="V59" s="56"/>
       <c r="W59" s="57"/>
     </row>
-    <row r="60" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="16.5">
       <c r="A60" s="56"/>
       <c r="B60" s="56"/>
       <c r="C60" s="56"/>
@@ -3028,7 +3065,7 @@
       <c r="V60" s="56"/>
       <c r="W60" s="57"/>
     </row>
-    <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="16.5">
       <c r="A61" s="56"/>
       <c r="B61" s="56"/>
       <c r="C61" s="56"/>
@@ -3053,7 +3090,7 @@
       <c r="V61" s="56"/>
       <c r="W61" s="57"/>
     </row>
-    <row r="62" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="16.5">
       <c r="A62" s="56"/>
       <c r="B62" s="56"/>
       <c r="C62" s="56"/>
@@ -3078,7 +3115,7 @@
       <c r="V62" s="56"/>
       <c r="W62" s="57"/>
     </row>
-    <row r="63" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="16.5">
       <c r="A63" s="56"/>
       <c r="B63" s="56"/>
       <c r="C63" s="56"/>
@@ -3103,7 +3140,7 @@
       <c r="V63" s="56"/>
       <c r="W63" s="57"/>
     </row>
-    <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="16.5">
       <c r="A64" s="56"/>
       <c r="B64" s="56"/>
       <c r="C64" s="56"/>
@@ -3128,7 +3165,7 @@
       <c r="V64" s="56"/>
       <c r="W64" s="57"/>
     </row>
-    <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="16.5">
       <c r="A65" s="56"/>
       <c r="B65" s="56"/>
       <c r="C65" s="56"/>
@@ -3153,7 +3190,7 @@
       <c r="V65" s="56"/>
       <c r="W65" s="57"/>
     </row>
-    <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="16.5">
       <c r="A66" s="56"/>
       <c r="B66" s="56"/>
       <c r="C66" s="56"/>
@@ -3178,7 +3215,7 @@
       <c r="V66" s="56"/>
       <c r="W66" s="57"/>
     </row>
-    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="16.5">
       <c r="A67" s="56"/>
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
@@ -3203,7 +3240,7 @@
       <c r="V67" s="56"/>
       <c r="W67" s="57"/>
     </row>
-    <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="16.5">
       <c r="A68" s="56"/>
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
@@ -3228,7 +3265,7 @@
       <c r="V68" s="56"/>
       <c r="W68" s="57"/>
     </row>
-    <row r="69" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="16.5">
       <c r="A69" s="56"/>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
@@ -3253,7 +3290,7 @@
       <c r="V69" s="56"/>
       <c r="W69" s="57"/>
     </row>
-    <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="16.5">
       <c r="A70" s="56"/>
       <c r="B70" s="56"/>
       <c r="C70" s="56"/>
@@ -3278,7 +3315,7 @@
       <c r="V70" s="56"/>
       <c r="W70" s="57"/>
     </row>
-    <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="16.5">
       <c r="A71" s="56"/>
       <c r="B71" s="56"/>
       <c r="C71" s="56"/>
@@ -3303,7 +3340,7 @@
       <c r="V71" s="56"/>
       <c r="W71" s="57"/>
     </row>
-    <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="16.5">
       <c r="A72" s="56"/>
       <c r="B72" s="56"/>
       <c r="C72" s="56"/>
@@ -3328,7 +3365,7 @@
       <c r="V72" s="56"/>
       <c r="W72" s="57"/>
     </row>
-    <row r="73" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="16.5">
       <c r="A73" s="56"/>
       <c r="B73" s="56"/>
       <c r="C73" s="56"/>
@@ -3353,7 +3390,7 @@
       <c r="V73" s="56"/>
       <c r="W73" s="57"/>
     </row>
-    <row r="74" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="16.5">
       <c r="A74" s="56"/>
       <c r="B74" s="56"/>
       <c r="C74" s="56"/>
@@ -3378,7 +3415,7 @@
       <c r="V74" s="56"/>
       <c r="W74" s="57"/>
     </row>
-    <row r="75" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="16.5">
       <c r="A75" s="56"/>
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
@@ -3403,7 +3440,7 @@
       <c r="V75" s="56"/>
       <c r="W75" s="57"/>
     </row>
-    <row r="76" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="16.5">
       <c r="A76" s="56"/>
       <c r="B76" s="56"/>
       <c r="C76" s="56"/>
@@ -3428,7 +3465,7 @@
       <c r="V76" s="56"/>
       <c r="W76" s="57"/>
     </row>
-    <row r="77" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" ht="16.5">
       <c r="A77" s="56"/>
       <c r="B77" s="56"/>
       <c r="C77" s="56"/>
@@ -3453,7 +3490,7 @@
       <c r="V77" s="56"/>
       <c r="W77" s="57"/>
     </row>
-    <row r="78" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" ht="16.5">
       <c r="A78" s="56"/>
       <c r="B78" s="56"/>
       <c r="C78" s="56"/>
@@ -3478,7 +3515,7 @@
       <c r="V78" s="56"/>
       <c r="W78" s="57"/>
     </row>
-    <row r="79" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23" ht="16.5">
       <c r="A79" s="56"/>
       <c r="B79" s="56"/>
       <c r="C79" s="56"/>
@@ -3503,7 +3540,7 @@
       <c r="V79" s="56"/>
       <c r="W79" s="57"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23">
       <c r="A80" s="56"/>
       <c r="B80" s="56"/>
       <c r="C80" s="56"/>
@@ -3528,7 +3565,7 @@
       <c r="V80" s="56"/>
       <c r="W80" s="57"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23">
       <c r="A81" s="56"/>
       <c r="B81" s="56"/>
       <c r="C81" s="56"/>
@@ -3553,7 +3590,7 @@
       <c r="V81" s="56"/>
       <c r="W81" s="57"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23">
       <c r="A82" s="56"/>
       <c r="B82" s="56"/>
       <c r="C82" s="56"/>
@@ -3578,7 +3615,7 @@
       <c r="V82" s="56"/>
       <c r="W82" s="57"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23">
       <c r="A83" s="56"/>
       <c r="B83" s="56"/>
       <c r="C83" s="56"/>
@@ -3603,7 +3640,7 @@
       <c r="V83" s="56"/>
       <c r="W83" s="57"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23">
       <c r="A84" s="56"/>
       <c r="B84" s="56"/>
       <c r="C84" s="56"/>
@@ -3628,7 +3665,7 @@
       <c r="V84" s="56"/>
       <c r="W84" s="57"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23">
       <c r="A85" s="56"/>
       <c r="B85" s="56"/>
       <c r="C85" s="56"/>
@@ -3653,7 +3690,7 @@
       <c r="V85" s="56"/>
       <c r="W85" s="57"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23">
       <c r="A86" s="56"/>
       <c r="B86" s="56"/>
       <c r="C86" s="56"/>
@@ -3678,7 +3715,7 @@
       <c r="V86" s="56"/>
       <c r="W86" s="57"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23">
       <c r="A87" s="56"/>
       <c r="B87" s="56"/>
       <c r="C87" s="56"/>
@@ -3703,7 +3740,7 @@
       <c r="V87" s="56"/>
       <c r="W87" s="57"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23">
       <c r="A88" s="56"/>
       <c r="B88" s="56"/>
       <c r="C88" s="56"/>
@@ -3728,7 +3765,7 @@
       <c r="V88" s="56"/>
       <c r="W88" s="57"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23">
       <c r="A89" s="56"/>
       <c r="B89" s="56"/>
       <c r="C89" s="56"/>
@@ -3753,7 +3790,7 @@
       <c r="V89" s="56"/>
       <c r="W89" s="57"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23">
       <c r="A90" s="56"/>
       <c r="B90" s="56"/>
       <c r="C90" s="56"/>
@@ -3778,7 +3815,7 @@
       <c r="V90" s="56"/>
       <c r="W90" s="57"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23">
       <c r="A91" s="56"/>
       <c r="B91" s="56"/>
       <c r="C91" s="56"/>
@@ -3803,7 +3840,7 @@
       <c r="V91" s="56"/>
       <c r="W91" s="57"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23">
       <c r="A92" s="56"/>
       <c r="B92" s="56"/>
       <c r="C92" s="56"/>
@@ -3828,7 +3865,7 @@
       <c r="V92" s="56"/>
       <c r="W92" s="57"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23">
       <c r="A93" s="56"/>
       <c r="B93" s="56"/>
       <c r="C93" s="56"/>
@@ -3853,7 +3890,7 @@
       <c r="V93" s="56"/>
       <c r="W93" s="57"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23">
       <c r="A94" s="56"/>
       <c r="B94" s="56"/>
       <c r="C94" s="56"/>
@@ -3878,7 +3915,7 @@
       <c r="V94" s="56"/>
       <c r="W94" s="57"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23">
       <c r="A95" s="56"/>
       <c r="B95" s="56"/>
       <c r="C95" s="56"/>
@@ -3903,7 +3940,7 @@
       <c r="V95" s="56"/>
       <c r="W95" s="57"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23">
       <c r="A96" s="56"/>
       <c r="B96" s="56"/>
       <c r="C96" s="56"/>
@@ -3928,7 +3965,7 @@
       <c r="V96" s="56"/>
       <c r="W96" s="57"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23">
       <c r="A97" s="56"/>
       <c r="B97" s="56"/>
       <c r="C97" s="56"/>
@@ -3953,7 +3990,7 @@
       <c r="V97" s="56"/>
       <c r="W97" s="57"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23">
       <c r="A98" s="56"/>
       <c r="B98" s="56"/>
       <c r="C98" s="56"/>
@@ -3978,7 +4015,7 @@
       <c r="V98" s="56"/>
       <c r="W98" s="57"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23">
       <c r="A99" s="56"/>
       <c r="B99" s="56"/>
       <c r="C99" s="56"/>
@@ -4003,7 +4040,7 @@
       <c r="V99" s="56"/>
       <c r="W99" s="57"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23">
       <c r="A100" s="56"/>
       <c r="B100" s="56"/>
       <c r="C100" s="56"/>
@@ -4028,7 +4065,7 @@
       <c r="V100" s="56"/>
       <c r="W100" s="57"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23">
       <c r="A101" s="56"/>
       <c r="B101" s="56"/>
       <c r="C101" s="56"/>
@@ -4053,7 +4090,7 @@
       <c r="V101" s="56"/>
       <c r="W101" s="57"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23">
       <c r="A102" s="56"/>
       <c r="B102" s="56"/>
       <c r="C102" s="56"/>
@@ -4078,7 +4115,7 @@
       <c r="V102" s="56"/>
       <c r="W102" s="57"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23">
       <c r="A103" s="56"/>
       <c r="B103" s="56"/>
       <c r="C103" s="56"/>
@@ -4103,7 +4140,7 @@
       <c r="V103" s="56"/>
       <c r="W103" s="57"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23">
       <c r="A104" s="56"/>
       <c r="B104" s="56"/>
       <c r="C104" s="56"/>
@@ -4128,7 +4165,7 @@
       <c r="V104" s="56"/>
       <c r="W104" s="57"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23">
       <c r="A105" s="56"/>
       <c r="B105" s="56"/>
       <c r="C105" s="56"/>
@@ -4153,7 +4190,7 @@
       <c r="V105" s="56"/>
       <c r="W105" s="57"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23">
       <c r="A106" s="56"/>
       <c r="B106" s="56"/>
       <c r="C106" s="56"/>
@@ -4178,7 +4215,7 @@
       <c r="V106" s="56"/>
       <c r="W106" s="57"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23">
       <c r="A107" s="56"/>
       <c r="B107" s="56"/>
       <c r="C107" s="56"/>
@@ -4203,7 +4240,7 @@
       <c r="V107" s="56"/>
       <c r="W107" s="57"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23">
       <c r="A108" s="56"/>
       <c r="B108" s="56"/>
       <c r="C108" s="56"/>
@@ -4228,7 +4265,7 @@
       <c r="V108" s="56"/>
       <c r="W108" s="57"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23">
       <c r="A109" s="56"/>
       <c r="B109" s="56"/>
       <c r="C109" s="56"/>
@@ -4253,7 +4290,7 @@
       <c r="V109" s="56"/>
       <c r="W109" s="57"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23">
       <c r="A110" s="56"/>
       <c r="B110" s="56"/>
       <c r="C110" s="56"/>
@@ -4278,7 +4315,7 @@
       <c r="V110" s="56"/>
       <c r="W110" s="57"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23">
       <c r="A111" s="56"/>
       <c r="B111" s="56"/>
       <c r="C111" s="56"/>
@@ -4303,7 +4340,7 @@
       <c r="V111" s="56"/>
       <c r="W111" s="57"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23">
       <c r="A112" s="56"/>
       <c r="B112" s="56"/>
       <c r="C112" s="56"/>
@@ -4328,7 +4365,7 @@
       <c r="V112" s="56"/>
       <c r="W112" s="57"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23">
       <c r="A113" s="56"/>
       <c r="B113" s="56"/>
       <c r="C113" s="56"/>
@@ -4353,7 +4390,7 @@
       <c r="V113" s="56"/>
       <c r="W113" s="57"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23">
       <c r="A114" s="56"/>
       <c r="B114" s="56"/>
       <c r="C114" s="56"/>
@@ -4378,7 +4415,7 @@
       <c r="V114" s="56"/>
       <c r="W114" s="57"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23">
       <c r="A115" s="56"/>
       <c r="B115" s="56"/>
       <c r="C115" s="56"/>
@@ -4403,7 +4440,7 @@
       <c r="V115" s="56"/>
       <c r="W115" s="57"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23">
       <c r="A116" s="56"/>
       <c r="B116" s="56"/>
       <c r="C116" s="56"/>
@@ -4428,7 +4465,7 @@
       <c r="V116" s="56"/>
       <c r="W116" s="57"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23">
       <c r="A117" s="56"/>
       <c r="B117" s="56"/>
       <c r="C117" s="56"/>
@@ -4453,7 +4490,7 @@
       <c r="V117" s="56"/>
       <c r="W117" s="57"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23">
       <c r="A118" s="56"/>
       <c r="B118" s="56"/>
       <c r="C118" s="56"/>
@@ -4478,7 +4515,7 @@
       <c r="V118" s="56"/>
       <c r="W118" s="57"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23">
       <c r="A119" s="56"/>
       <c r="B119" s="56"/>
       <c r="C119" s="56"/>
@@ -4503,7 +4540,7 @@
       <c r="V119" s="56"/>
       <c r="W119" s="57"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23">
       <c r="A120" s="56"/>
       <c r="B120" s="56"/>
       <c r="C120" s="56"/>
@@ -4528,7 +4565,7 @@
       <c r="V120" s="56"/>
       <c r="W120" s="57"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23">
       <c r="A121" s="56"/>
       <c r="B121" s="56"/>
       <c r="C121" s="56"/>
@@ -4553,7 +4590,7 @@
       <c r="V121" s="56"/>
       <c r="W121" s="57"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23">
       <c r="A122" s="56"/>
       <c r="B122" s="56"/>
       <c r="C122" s="56"/>
@@ -4578,7 +4615,7 @@
       <c r="V122" s="56"/>
       <c r="W122" s="57"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23">
       <c r="A123" s="56"/>
       <c r="B123" s="56"/>
       <c r="C123" s="56"/>
@@ -4603,7 +4640,7 @@
       <c r="V123" s="56"/>
       <c r="W123" s="57"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23">
       <c r="A124" s="56"/>
       <c r="B124" s="56"/>
       <c r="C124" s="56"/>
@@ -4628,7 +4665,7 @@
       <c r="V124" s="56"/>
       <c r="W124" s="57"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23">
       <c r="A125" s="56"/>
       <c r="B125" s="56"/>
       <c r="C125" s="56"/>
@@ -4653,7 +4690,7 @@
       <c r="V125" s="56"/>
       <c r="W125" s="57"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23">
       <c r="A126" s="56"/>
       <c r="B126" s="56"/>
       <c r="C126" s="56"/>
@@ -4678,7 +4715,7 @@
       <c r="V126" s="56"/>
       <c r="W126" s="57"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23">
       <c r="A127" s="56"/>
       <c r="B127" s="56"/>
       <c r="C127" s="56"/>
@@ -4703,7 +4740,7 @@
       <c r="V127" s="56"/>
       <c r="W127" s="57"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23">
       <c r="A128" s="56"/>
       <c r="B128" s="56"/>
       <c r="C128" s="56"/>
@@ -4728,7 +4765,7 @@
       <c r="V128" s="56"/>
       <c r="W128" s="57"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23">
       <c r="A129" s="56"/>
       <c r="B129" s="56"/>
       <c r="C129" s="56"/>
@@ -4753,7 +4790,7 @@
       <c r="V129" s="56"/>
       <c r="W129" s="57"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23">
       <c r="A130" s="56"/>
       <c r="B130" s="56"/>
       <c r="C130" s="56"/>
@@ -4778,7 +4815,7 @@
       <c r="V130" s="56"/>
       <c r="W130" s="57"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23">
       <c r="A131" s="56"/>
       <c r="B131" s="56"/>
       <c r="C131" s="56"/>
@@ -4803,7 +4840,7 @@
       <c r="V131" s="56"/>
       <c r="W131" s="57"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23">
       <c r="A132" s="56"/>
       <c r="B132" s="56"/>
       <c r="C132" s="56"/>
@@ -4828,7 +4865,7 @@
       <c r="V132" s="56"/>
       <c r="W132" s="57"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23">
       <c r="A133" s="56"/>
       <c r="B133" s="56"/>
       <c r="C133" s="56"/>
@@ -4853,7 +4890,7 @@
       <c r="V133" s="56"/>
       <c r="W133" s="57"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23">
       <c r="A134" s="56"/>
       <c r="B134" s="56"/>
       <c r="C134" s="56"/>
@@ -4878,7 +4915,7 @@
       <c r="V134" s="56"/>
       <c r="W134" s="57"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23">
       <c r="A135" s="56"/>
       <c r="B135" s="56"/>
       <c r="C135" s="56"/>
@@ -4903,7 +4940,7 @@
       <c r="V135" s="56"/>
       <c r="W135" s="57"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23">
       <c r="A136" s="56"/>
       <c r="B136" s="56"/>
       <c r="C136" s="56"/>
@@ -4924,7 +4961,7 @@
       <c r="R136" s="57"/>
       <c r="W136" s="57"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23">
       <c r="A137" s="56"/>
       <c r="B137" s="56"/>
       <c r="C137" s="56"/>
@@ -4945,7 +4982,7 @@
       <c r="R137" s="57"/>
       <c r="W137" s="57"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23">
       <c r="A138" s="56"/>
       <c r="B138" s="56"/>
       <c r="C138" s="56"/>
@@ -4966,7 +5003,7 @@
       <c r="R138" s="57"/>
       <c r="W138" s="57"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23">
       <c r="A139" s="56"/>
       <c r="B139" s="56"/>
       <c r="C139" s="56"/>
@@ -4987,7 +5024,7 @@
       <c r="R139" s="57"/>
       <c r="W139" s="57"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23">
       <c r="A140" s="56"/>
       <c r="B140" s="56"/>
       <c r="C140" s="56"/>
@@ -5008,7 +5045,7 @@
       <c r="R140" s="57"/>
       <c r="W140" s="57"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23">
       <c r="A141" s="56"/>
       <c r="B141" s="56"/>
       <c r="C141" s="56"/>
@@ -5029,7 +5066,7 @@
       <c r="R141" s="57"/>
       <c r="W141" s="57"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23">
       <c r="A142" s="56"/>
       <c r="B142" s="56"/>
       <c r="C142" s="56"/>
@@ -5050,7 +5087,7 @@
       <c r="R142" s="57"/>
       <c r="W142" s="57"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23">
       <c r="A143" s="56"/>
       <c r="B143" s="56"/>
       <c r="C143" s="56"/>
@@ -5071,7 +5108,7 @@
       <c r="R143" s="57"/>
       <c r="W143" s="57"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23">
       <c r="A144" s="56"/>
       <c r="B144" s="56"/>
       <c r="C144" s="56"/>
@@ -5092,7 +5129,7 @@
       <c r="R144" s="57"/>
       <c r="W144" s="57"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23">
       <c r="A145" s="56"/>
       <c r="B145" s="56"/>
       <c r="C145" s="56"/>
@@ -5113,7 +5150,7 @@
       <c r="R145" s="57"/>
       <c r="W145" s="57"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23">
       <c r="A146" s="56"/>
       <c r="B146" s="56"/>
       <c r="C146" s="56"/>
@@ -5134,7 +5171,7 @@
       <c r="R146" s="57"/>
       <c r="W146" s="57"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23">
       <c r="A147" s="56"/>
       <c r="B147" s="56"/>
       <c r="C147" s="56"/>
@@ -5155,7 +5192,7 @@
       <c r="R147" s="57"/>
       <c r="W147" s="57"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23">
       <c r="A148" s="56"/>
       <c r="B148" s="56"/>
       <c r="C148" s="56"/>
@@ -5176,7 +5213,7 @@
       <c r="R148" s="57"/>
       <c r="W148" s="57"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23">
       <c r="A149" s="56"/>
       <c r="B149" s="56"/>
       <c r="C149" s="56"/>
@@ -5197,7 +5234,7 @@
       <c r="R149" s="57"/>
       <c r="W149" s="57"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23">
       <c r="A150" s="56"/>
       <c r="B150" s="56"/>
       <c r="C150" s="56"/>
@@ -5218,7 +5255,7 @@
       <c r="R150" s="57"/>
       <c r="W150" s="57"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23">
       <c r="A151" s="56"/>
       <c r="B151" s="56"/>
       <c r="C151" s="56"/>
@@ -5239,7 +5276,7 @@
       <c r="R151" s="57"/>
       <c r="W151" s="57"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23">
       <c r="A152" s="56"/>
       <c r="B152" s="56"/>
       <c r="C152" s="56"/>
@@ -5260,7 +5297,7 @@
       <c r="R152" s="57"/>
       <c r="W152" s="57"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23">
       <c r="A153" s="56"/>
       <c r="B153" s="56"/>
       <c r="C153" s="56"/>
@@ -5281,7 +5318,7 @@
       <c r="R153" s="57"/>
       <c r="W153" s="57"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23">
       <c r="A154" s="56"/>
       <c r="B154" s="56"/>
       <c r="C154" s="56"/>
@@ -5302,7 +5339,7 @@
       <c r="R154" s="57"/>
       <c r="W154" s="57"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23">
       <c r="A155" s="56"/>
       <c r="B155" s="56"/>
       <c r="C155" s="56"/>
@@ -5323,7 +5360,7 @@
       <c r="R155" s="57"/>
       <c r="W155" s="57"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23">
       <c r="A156" s="56"/>
       <c r="B156" s="56"/>
       <c r="C156" s="56"/>
@@ -5344,7 +5381,7 @@
       <c r="R156" s="57"/>
       <c r="W156" s="57"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23">
       <c r="A157" s="56"/>
       <c r="B157" s="56"/>
       <c r="C157" s="56"/>
@@ -5365,7 +5402,7 @@
       <c r="R157" s="57"/>
       <c r="W157" s="57"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23">
       <c r="A158" s="56"/>
       <c r="B158" s="56"/>
       <c r="C158" s="56"/>
@@ -5386,7 +5423,7 @@
       <c r="R158" s="57"/>
       <c r="W158" s="57"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23">
       <c r="A159" s="56"/>
       <c r="B159" s="56"/>
       <c r="C159" s="56"/>
@@ -5407,7 +5444,7 @@
       <c r="R159" s="57"/>
       <c r="W159" s="57"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23">
       <c r="A160" s="56"/>
       <c r="B160" s="56"/>
       <c r="C160" s="56"/>
@@ -5428,7 +5465,7 @@
       <c r="R160" s="57"/>
       <c r="W160" s="57"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23">
       <c r="A161" s="56"/>
       <c r="B161" s="56"/>
       <c r="C161" s="56"/>
@@ -5449,7 +5486,7 @@
       <c r="R161" s="57"/>
       <c r="W161" s="57"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23">
       <c r="A162" s="56"/>
       <c r="B162" s="56"/>
       <c r="C162" s="56"/>
@@ -5470,7 +5507,7 @@
       <c r="R162" s="57"/>
       <c r="W162" s="57"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23">
       <c r="A163" s="56"/>
       <c r="B163" s="56"/>
       <c r="C163" s="56"/>
@@ -5491,7 +5528,7 @@
       <c r="R163" s="57"/>
       <c r="W163" s="57"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23">
       <c r="A164" s="56"/>
       <c r="B164" s="56"/>
       <c r="C164" s="56"/>
@@ -5512,7 +5549,7 @@
       <c r="R164" s="57"/>
       <c r="W164" s="57"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23">
       <c r="A165" s="56"/>
       <c r="B165" s="56"/>
       <c r="C165" s="56"/>
@@ -5533,7 +5570,7 @@
       <c r="R165" s="57"/>
       <c r="W165" s="57"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23">
       <c r="A166" s="56"/>
       <c r="B166" s="56"/>
       <c r="C166" s="56"/>
@@ -5554,7 +5591,7 @@
       <c r="R166" s="57"/>
       <c r="W166" s="57"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:23">
       <c r="A167" s="56"/>
       <c r="B167" s="56"/>
       <c r="C167" s="56"/>
@@ -5575,7 +5612,7 @@
       <c r="R167" s="57"/>
       <c r="W167" s="57"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:23">
       <c r="A168" s="56"/>
       <c r="B168" s="56"/>
       <c r="C168" s="56"/>
@@ -5596,7 +5633,7 @@
       <c r="R168" s="57"/>
       <c r="W168" s="57"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:23">
       <c r="A169" s="56"/>
       <c r="B169" s="56"/>
       <c r="C169" s="56"/>
@@ -5617,7 +5654,7 @@
       <c r="R169" s="57"/>
       <c r="W169" s="57"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:23">
       <c r="A170" s="56"/>
       <c r="B170" s="56"/>
       <c r="C170" s="56"/>
@@ -5676,34 +5713,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="7" width="7.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="7" width="7.125" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" customWidth="1"/>
-    <col min="10" max="10" width="44.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="44.375" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
     <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="54.83203125" customWidth="1"/>
+    <col min="13" max="13" width="54.875" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="31.125" customWidth="1"/>
+    <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
@@ -5759,7 +5796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -5779,7 +5816,7 @@
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -5799,7 +5836,7 @@
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -5826,41 +5863,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:11" ht="20.25">
+      <c r="A1" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
@@ -5895,9 +5932,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+    <row r="3" spans="1:11" ht="17.25">
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5908,9 +5945,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+    <row r="4" spans="1:11" ht="17.25">
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5921,9 +5958,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
+    <row r="5" spans="1:11" ht="17.25">
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5934,9 +5971,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+    <row r="6" spans="1:11" ht="17.25">
+      <c r="A6" s="84"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5947,9 +5984,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+    <row r="7" spans="1:11" ht="17.25">
+      <c r="A7" s="84"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5960,9 +5997,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+    <row r="8" spans="1:11" ht="17.25">
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5973,9 +6010,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+    <row r="9" spans="1:11" ht="17.25">
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5986,9 +6023,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+    <row r="10" spans="1:11" ht="17.25">
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5999,7 +6036,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
@@ -6026,61 +6063,61 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6121,7 +6158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6136,7 +6173,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6151,7 +6188,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6166,7 +6203,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6181,7 +6218,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6196,7 +6233,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6211,7 +6248,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6226,7 +6263,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6241,7 +6278,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6256,7 +6293,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6271,7 +6308,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6286,7 +6323,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6301,7 +6338,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6340,61 +6377,61 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6435,7 +6472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6450,7 +6487,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6465,7 +6502,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6480,7 +6517,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6495,7 +6532,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6510,7 +6547,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6525,7 +6562,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6540,7 +6577,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6555,7 +6592,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6570,7 +6607,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6585,7 +6622,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6600,7 +6637,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6615,7 +6652,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6654,61 +6691,61 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6749,7 +6786,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6764,7 +6801,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6779,7 +6816,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6794,7 +6831,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6809,7 +6846,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6824,7 +6861,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6839,7 +6876,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6854,7 +6891,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6869,7 +6906,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6884,7 +6921,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6899,7 +6936,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6914,7 +6951,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6929,7 +6966,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6968,63 +7005,63 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7.875" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7065,7 +7102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7080,7 +7117,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7095,7 +7132,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7110,7 +7147,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7125,7 +7162,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7140,7 +7177,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7155,7 +7192,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7170,7 +7207,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7185,7 +7222,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7200,7 +7237,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7215,7 +7252,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7230,7 +7267,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7245,7 +7282,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7284,25 +7321,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -7328,7 +7365,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7338,7 +7375,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -7348,7 +7385,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -7358,7 +7395,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -7368,7 +7405,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -7378,7 +7415,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -7388,7 +7425,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -7398,7 +7435,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -7408,7 +7445,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -7418,7 +7455,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -7428,7 +7465,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -7438,7 +7475,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7448,7 +7485,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7458,7 +7495,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7468,7 +7505,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7478,7 +7515,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7488,7 +7525,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7498,7 +7535,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>

--- a/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7_EQ组.xlsx
+++ b/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7_EQ组.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRepertory\Mogo_Doc\VersionRecords\Version 5.3.7 20170406\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="2700" windowWidth="35775" windowHeight="15825"/>
+    <workbookView xWindow="29880" yWindow="2700" windowWidth="35775" windowHeight="15825" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.7 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -26,9 +31,6 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="93">
   <si>
     <t>No</t>
   </si>
@@ -344,15 +346,39 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>renter、renterpc、rentertp、BS、LTS</t>
+    <t>BS（sync）、LTS</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行roomScoreRepair.sh</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注脚本执行时间及数据库的io情况，执行完成后检查数据</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源排序3.0初始化脚本</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线后执行此脚本</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -508,6 +534,21 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -760,7 +801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1015,6 +1056,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="5" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="7" fillId="5" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1043,7 +1114,7 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="强调文字颜色 4" xfId="11" builtinId="41"/>
+    <cellStyle name="着色 4" xfId="11" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1058,13 +1129,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1398,14 +1472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
@@ -1431,7 +1505,7 @@
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1" ht="27">
+    <row r="1" spans="1:24" s="45" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1502,7 +1576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="51">
         <v>1</v>
       </c>
@@ -1564,7 +1638,7 @@
       <c r="W2" s="72"/>
       <c r="X2" s="73"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="51">
         <v>2</v>
       </c>
@@ -1626,7 +1700,7 @@
       <c r="W3" s="72"/>
       <c r="X3" s="73"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1">
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
@@ -1652,7 +1726,7 @@
       <c r="W4" s="72"/>
       <c r="X4" s="73"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -1678,7 +1752,7 @@
       <c r="W5" s="74"/>
       <c r="X5" s="73"/>
     </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -1704,7 +1778,7 @@
       <c r="W6" s="74"/>
       <c r="X6" s="73"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -1730,7 +1804,7 @@
       <c r="W7" s="74"/>
       <c r="X7" s="73"/>
     </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -1756,7 +1830,7 @@
       <c r="W8" s="74"/>
       <c r="X8" s="73"/>
     </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -1782,7 +1856,7 @@
       <c r="W9" s="74"/>
       <c r="X9" s="73"/>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -1808,7 +1882,7 @@
       <c r="W10" s="74"/>
       <c r="X10" s="73"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -1834,7 +1908,7 @@
       <c r="W11" s="74"/>
       <c r="X11" s="73"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -1860,7 +1934,7 @@
       <c r="W12" s="74"/>
       <c r="X12" s="73"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -1886,7 +1960,7 @@
       <c r="W13" s="74"/>
       <c r="X13" s="73"/>
     </row>
-    <row r="14" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="14" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
@@ -1912,7 +1986,7 @@
       <c r="W14" s="74"/>
       <c r="X14" s="73"/>
     </row>
-    <row r="15" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="15" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -1938,7 +2012,7 @@
       <c r="W15" s="74"/>
       <c r="X15" s="73"/>
     </row>
-    <row r="16" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="16" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -1964,7 +2038,7 @@
       <c r="W16" s="74"/>
       <c r="X16" s="73"/>
     </row>
-    <row r="17" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="17" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -1990,7 +2064,7 @@
       <c r="W17" s="75"/>
       <c r="X17" s="73"/>
     </row>
-    <row r="18" spans="1:24" ht="16.5">
+    <row r="18" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -2015,7 +2089,7 @@
       <c r="V18" s="56"/>
       <c r="W18" s="57"/>
     </row>
-    <row r="19" spans="1:24" ht="16.5">
+    <row r="19" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -2040,7 +2114,7 @@
       <c r="V19" s="56"/>
       <c r="W19" s="57"/>
     </row>
-    <row r="20" spans="1:24" ht="16.5">
+    <row r="20" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -2065,7 +2139,7 @@
       <c r="V20" s="56"/>
       <c r="W20" s="57"/>
     </row>
-    <row r="21" spans="1:24" ht="16.5">
+    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -2090,7 +2164,7 @@
       <c r="V21" s="56"/>
       <c r="W21" s="74"/>
     </row>
-    <row r="22" spans="1:24" ht="16.5">
+    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -2115,7 +2189,7 @@
       <c r="V22" s="56"/>
       <c r="W22" s="74"/>
     </row>
-    <row r="23" spans="1:24" ht="16.5">
+    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -2140,7 +2214,7 @@
       <c r="V23" s="56"/>
       <c r="W23" s="74"/>
     </row>
-    <row r="24" spans="1:24" ht="16.5">
+    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2165,7 +2239,7 @@
       <c r="V24" s="70"/>
       <c r="W24" s="76"/>
     </row>
-    <row r="25" spans="1:24" ht="16.5">
+    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -2190,7 +2264,7 @@
       <c r="V25" s="71"/>
       <c r="W25" s="76"/>
     </row>
-    <row r="26" spans="1:24" ht="16.5">
+    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2215,7 +2289,7 @@
       <c r="V26" s="77"/>
       <c r="W26" s="76"/>
     </row>
-    <row r="27" spans="1:24" ht="16.5">
+    <row r="27" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -2240,7 +2314,7 @@
       <c r="V27" s="71"/>
       <c r="W27" s="76"/>
     </row>
-    <row r="28" spans="1:24" ht="16.5">
+    <row r="28" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -2265,7 +2339,7 @@
       <c r="V28" s="71"/>
       <c r="W28" s="76"/>
     </row>
-    <row r="29" spans="1:24" ht="16.5">
+    <row r="29" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -2290,7 +2364,7 @@
       <c r="V29" s="69"/>
       <c r="W29" s="62"/>
     </row>
-    <row r="30" spans="1:24" ht="16.5">
+    <row r="30" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -2315,7 +2389,7 @@
       <c r="V30" s="56"/>
       <c r="W30" s="74"/>
     </row>
-    <row r="31" spans="1:24" ht="16.5">
+    <row r="31" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -2340,7 +2414,7 @@
       <c r="V31" s="56"/>
       <c r="W31" s="74"/>
     </row>
-    <row r="32" spans="1:24" ht="16.5">
+    <row r="32" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2365,7 +2439,7 @@
       <c r="V32" s="56"/>
       <c r="W32" s="74"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5">
+    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -2390,7 +2464,7 @@
       <c r="V33" s="71"/>
       <c r="W33" s="76"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5">
+    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -2415,7 +2489,7 @@
       <c r="V34" s="56"/>
       <c r="W34" s="72"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5">
+    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -2440,7 +2514,7 @@
       <c r="V35" s="56"/>
       <c r="W35" s="74"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5">
+    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -2465,7 +2539,7 @@
       <c r="V36" s="56"/>
       <c r="W36" s="74"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5">
+    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -2490,7 +2564,7 @@
       <c r="V37" s="56"/>
       <c r="W37" s="74"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5">
+    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -2515,7 +2589,7 @@
       <c r="V38" s="56"/>
       <c r="W38" s="74"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5">
+    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -2540,7 +2614,7 @@
       <c r="V39" s="56"/>
       <c r="W39" s="74"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5">
+    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -2565,7 +2639,7 @@
       <c r="V40" s="56"/>
       <c r="W40" s="74"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5">
+    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -2590,7 +2664,7 @@
       <c r="V41" s="56"/>
       <c r="W41" s="74"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5">
+    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -2615,7 +2689,7 @@
       <c r="V42" s="56"/>
       <c r="W42" s="74"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5">
+    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -2640,7 +2714,7 @@
       <c r="V43" s="56"/>
       <c r="W43" s="74"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5">
+    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -2665,7 +2739,7 @@
       <c r="V44" s="56"/>
       <c r="W44" s="74"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5">
+    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -2690,7 +2764,7 @@
       <c r="V45" s="69"/>
       <c r="W45" s="74"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5">
+    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -2715,7 +2789,7 @@
       <c r="V46" s="69"/>
       <c r="W46" s="74"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5">
+    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -2740,7 +2814,7 @@
       <c r="V47" s="56"/>
       <c r="W47" s="57"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5">
+    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -2765,7 +2839,7 @@
       <c r="V48" s="56"/>
       <c r="W48" s="57"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5">
+    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -2790,7 +2864,7 @@
       <c r="V49" s="56"/>
       <c r="W49" s="57"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5">
+    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="51"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -2815,7 +2889,7 @@
       <c r="V50" s="56"/>
       <c r="W50" s="57"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5">
+    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="51"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -2840,7 +2914,7 @@
       <c r="V51" s="56"/>
       <c r="W51" s="57"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5">
+    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="51"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -2865,7 +2939,7 @@
       <c r="V52" s="56"/>
       <c r="W52" s="57"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5">
+    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="51"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -2890,7 +2964,7 @@
       <c r="V53" s="56"/>
       <c r="W53" s="57"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5">
+    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="56"/>
       <c r="B54" s="56"/>
       <c r="C54" s="56"/>
@@ -2915,7 +2989,7 @@
       <c r="V54" s="56"/>
       <c r="W54" s="57"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5">
+    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="56"/>
       <c r="B55" s="56"/>
       <c r="C55" s="56"/>
@@ -2940,7 +3014,7 @@
       <c r="V55" s="56"/>
       <c r="W55" s="57"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5">
+    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="56"/>
       <c r="B56" s="56"/>
       <c r="C56" s="56"/>
@@ -2965,7 +3039,7 @@
       <c r="V56" s="56"/>
       <c r="W56" s="57"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5">
+    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="56"/>
       <c r="B57" s="56"/>
       <c r="C57" s="56"/>
@@ -2990,7 +3064,7 @@
       <c r="V57" s="56"/>
       <c r="W57" s="57"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5">
+    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="56"/>
       <c r="B58" s="56"/>
       <c r="C58" s="56"/>
@@ -3015,7 +3089,7 @@
       <c r="V58" s="56"/>
       <c r="W58" s="57"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5">
+    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="56"/>
       <c r="B59" s="56"/>
       <c r="C59" s="56"/>
@@ -3040,7 +3114,7 @@
       <c r="V59" s="56"/>
       <c r="W59" s="57"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5">
+    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="56"/>
       <c r="B60" s="56"/>
       <c r="C60" s="56"/>
@@ -3065,7 +3139,7 @@
       <c r="V60" s="56"/>
       <c r="W60" s="57"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5">
+    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="56"/>
       <c r="B61" s="56"/>
       <c r="C61" s="56"/>
@@ -3090,7 +3164,7 @@
       <c r="V61" s="56"/>
       <c r="W61" s="57"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5">
+    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="56"/>
       <c r="B62" s="56"/>
       <c r="C62" s="56"/>
@@ -3115,7 +3189,7 @@
       <c r="V62" s="56"/>
       <c r="W62" s="57"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5">
+    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="56"/>
       <c r="B63" s="56"/>
       <c r="C63" s="56"/>
@@ -3140,7 +3214,7 @@
       <c r="V63" s="56"/>
       <c r="W63" s="57"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5">
+    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="56"/>
       <c r="B64" s="56"/>
       <c r="C64" s="56"/>
@@ -3165,7 +3239,7 @@
       <c r="V64" s="56"/>
       <c r="W64" s="57"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5">
+    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="56"/>
       <c r="B65" s="56"/>
       <c r="C65" s="56"/>
@@ -3190,7 +3264,7 @@
       <c r="V65" s="56"/>
       <c r="W65" s="57"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5">
+    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="56"/>
       <c r="B66" s="56"/>
       <c r="C66" s="56"/>
@@ -3215,7 +3289,7 @@
       <c r="V66" s="56"/>
       <c r="W66" s="57"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5">
+    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="56"/>
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
@@ -3240,7 +3314,7 @@
       <c r="V67" s="56"/>
       <c r="W67" s="57"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5">
+    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="56"/>
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
@@ -3265,7 +3339,7 @@
       <c r="V68" s="56"/>
       <c r="W68" s="57"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5">
+    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="56"/>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
@@ -3290,7 +3364,7 @@
       <c r="V69" s="56"/>
       <c r="W69" s="57"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5">
+    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="56"/>
       <c r="B70" s="56"/>
       <c r="C70" s="56"/>
@@ -3315,7 +3389,7 @@
       <c r="V70" s="56"/>
       <c r="W70" s="57"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5">
+    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="56"/>
       <c r="B71" s="56"/>
       <c r="C71" s="56"/>
@@ -3340,7 +3414,7 @@
       <c r="V71" s="56"/>
       <c r="W71" s="57"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5">
+    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="56"/>
       <c r="B72" s="56"/>
       <c r="C72" s="56"/>
@@ -3365,7 +3439,7 @@
       <c r="V72" s="56"/>
       <c r="W72" s="57"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5">
+    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="56"/>
       <c r="B73" s="56"/>
       <c r="C73" s="56"/>
@@ -3390,7 +3464,7 @@
       <c r="V73" s="56"/>
       <c r="W73" s="57"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5">
+    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="56"/>
       <c r="B74" s="56"/>
       <c r="C74" s="56"/>
@@ -3415,7 +3489,7 @@
       <c r="V74" s="56"/>
       <c r="W74" s="57"/>
     </row>
-    <row r="75" spans="1:23" ht="16.5">
+    <row r="75" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="56"/>
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
@@ -3440,7 +3514,7 @@
       <c r="V75" s="56"/>
       <c r="W75" s="57"/>
     </row>
-    <row r="76" spans="1:23" ht="16.5">
+    <row r="76" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="56"/>
       <c r="B76" s="56"/>
       <c r="C76" s="56"/>
@@ -3465,7 +3539,7 @@
       <c r="V76" s="56"/>
       <c r="W76" s="57"/>
     </row>
-    <row r="77" spans="1:23" ht="16.5">
+    <row r="77" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="56"/>
       <c r="B77" s="56"/>
       <c r="C77" s="56"/>
@@ -3490,7 +3564,7 @@
       <c r="V77" s="56"/>
       <c r="W77" s="57"/>
     </row>
-    <row r="78" spans="1:23" ht="16.5">
+    <row r="78" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="56"/>
       <c r="B78" s="56"/>
       <c r="C78" s="56"/>
@@ -3515,7 +3589,7 @@
       <c r="V78" s="56"/>
       <c r="W78" s="57"/>
     </row>
-    <row r="79" spans="1:23" ht="16.5">
+    <row r="79" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="56"/>
       <c r="B79" s="56"/>
       <c r="C79" s="56"/>
@@ -3540,7 +3614,7 @@
       <c r="V79" s="56"/>
       <c r="W79" s="57"/>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A80" s="56"/>
       <c r="B80" s="56"/>
       <c r="C80" s="56"/>
@@ -3565,7 +3639,7 @@
       <c r="V80" s="56"/>
       <c r="W80" s="57"/>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A81" s="56"/>
       <c r="B81" s="56"/>
       <c r="C81" s="56"/>
@@ -3590,7 +3664,7 @@
       <c r="V81" s="56"/>
       <c r="W81" s="57"/>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A82" s="56"/>
       <c r="B82" s="56"/>
       <c r="C82" s="56"/>
@@ -3615,7 +3689,7 @@
       <c r="V82" s="56"/>
       <c r="W82" s="57"/>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A83" s="56"/>
       <c r="B83" s="56"/>
       <c r="C83" s="56"/>
@@ -3640,7 +3714,7 @@
       <c r="V83" s="56"/>
       <c r="W83" s="57"/>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A84" s="56"/>
       <c r="B84" s="56"/>
       <c r="C84" s="56"/>
@@ -3665,7 +3739,7 @@
       <c r="V84" s="56"/>
       <c r="W84" s="57"/>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A85" s="56"/>
       <c r="B85" s="56"/>
       <c r="C85" s="56"/>
@@ -3690,7 +3764,7 @@
       <c r="V85" s="56"/>
       <c r="W85" s="57"/>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A86" s="56"/>
       <c r="B86" s="56"/>
       <c r="C86" s="56"/>
@@ -3715,7 +3789,7 @@
       <c r="V86" s="56"/>
       <c r="W86" s="57"/>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A87" s="56"/>
       <c r="B87" s="56"/>
       <c r="C87" s="56"/>
@@ -3740,7 +3814,7 @@
       <c r="V87" s="56"/>
       <c r="W87" s="57"/>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A88" s="56"/>
       <c r="B88" s="56"/>
       <c r="C88" s="56"/>
@@ -3765,7 +3839,7 @@
       <c r="V88" s="56"/>
       <c r="W88" s="57"/>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A89" s="56"/>
       <c r="B89" s="56"/>
       <c r="C89" s="56"/>
@@ -3790,7 +3864,7 @@
       <c r="V89" s="56"/>
       <c r="W89" s="57"/>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A90" s="56"/>
       <c r="B90" s="56"/>
       <c r="C90" s="56"/>
@@ -3815,7 +3889,7 @@
       <c r="V90" s="56"/>
       <c r="W90" s="57"/>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A91" s="56"/>
       <c r="B91" s="56"/>
       <c r="C91" s="56"/>
@@ -3840,7 +3914,7 @@
       <c r="V91" s="56"/>
       <c r="W91" s="57"/>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A92" s="56"/>
       <c r="B92" s="56"/>
       <c r="C92" s="56"/>
@@ -3865,7 +3939,7 @@
       <c r="V92" s="56"/>
       <c r="W92" s="57"/>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A93" s="56"/>
       <c r="B93" s="56"/>
       <c r="C93" s="56"/>
@@ -3890,7 +3964,7 @@
       <c r="V93" s="56"/>
       <c r="W93" s="57"/>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A94" s="56"/>
       <c r="B94" s="56"/>
       <c r="C94" s="56"/>
@@ -3915,7 +3989,7 @@
       <c r="V94" s="56"/>
       <c r="W94" s="57"/>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A95" s="56"/>
       <c r="B95" s="56"/>
       <c r="C95" s="56"/>
@@ -3940,7 +4014,7 @@
       <c r="V95" s="56"/>
       <c r="W95" s="57"/>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A96" s="56"/>
       <c r="B96" s="56"/>
       <c r="C96" s="56"/>
@@ -3965,7 +4039,7 @@
       <c r="V96" s="56"/>
       <c r="W96" s="57"/>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A97" s="56"/>
       <c r="B97" s="56"/>
       <c r="C97" s="56"/>
@@ -3990,7 +4064,7 @@
       <c r="V97" s="56"/>
       <c r="W97" s="57"/>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A98" s="56"/>
       <c r="B98" s="56"/>
       <c r="C98" s="56"/>
@@ -4015,7 +4089,7 @@
       <c r="V98" s="56"/>
       <c r="W98" s="57"/>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A99" s="56"/>
       <c r="B99" s="56"/>
       <c r="C99" s="56"/>
@@ -4040,7 +4114,7 @@
       <c r="V99" s="56"/>
       <c r="W99" s="57"/>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A100" s="56"/>
       <c r="B100" s="56"/>
       <c r="C100" s="56"/>
@@ -4065,7 +4139,7 @@
       <c r="V100" s="56"/>
       <c r="W100" s="57"/>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A101" s="56"/>
       <c r="B101" s="56"/>
       <c r="C101" s="56"/>
@@ -4090,7 +4164,7 @@
       <c r="V101" s="56"/>
       <c r="W101" s="57"/>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A102" s="56"/>
       <c r="B102" s="56"/>
       <c r="C102" s="56"/>
@@ -4115,7 +4189,7 @@
       <c r="V102" s="56"/>
       <c r="W102" s="57"/>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A103" s="56"/>
       <c r="B103" s="56"/>
       <c r="C103" s="56"/>
@@ -4140,7 +4214,7 @@
       <c r="V103" s="56"/>
       <c r="W103" s="57"/>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A104" s="56"/>
       <c r="B104" s="56"/>
       <c r="C104" s="56"/>
@@ -4165,7 +4239,7 @@
       <c r="V104" s="56"/>
       <c r="W104" s="57"/>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A105" s="56"/>
       <c r="B105" s="56"/>
       <c r="C105" s="56"/>
@@ -4190,7 +4264,7 @@
       <c r="V105" s="56"/>
       <c r="W105" s="57"/>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A106" s="56"/>
       <c r="B106" s="56"/>
       <c r="C106" s="56"/>
@@ -4215,7 +4289,7 @@
       <c r="V106" s="56"/>
       <c r="W106" s="57"/>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A107" s="56"/>
       <c r="B107" s="56"/>
       <c r="C107" s="56"/>
@@ -4240,7 +4314,7 @@
       <c r="V107" s="56"/>
       <c r="W107" s="57"/>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A108" s="56"/>
       <c r="B108" s="56"/>
       <c r="C108" s="56"/>
@@ -4265,7 +4339,7 @@
       <c r="V108" s="56"/>
       <c r="W108" s="57"/>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A109" s="56"/>
       <c r="B109" s="56"/>
       <c r="C109" s="56"/>
@@ -4290,7 +4364,7 @@
       <c r="V109" s="56"/>
       <c r="W109" s="57"/>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A110" s="56"/>
       <c r="B110" s="56"/>
       <c r="C110" s="56"/>
@@ -4315,7 +4389,7 @@
       <c r="V110" s="56"/>
       <c r="W110" s="57"/>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A111" s="56"/>
       <c r="B111" s="56"/>
       <c r="C111" s="56"/>
@@ -4340,7 +4414,7 @@
       <c r="V111" s="56"/>
       <c r="W111" s="57"/>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A112" s="56"/>
       <c r="B112" s="56"/>
       <c r="C112" s="56"/>
@@ -4365,7 +4439,7 @@
       <c r="V112" s="56"/>
       <c r="W112" s="57"/>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A113" s="56"/>
       <c r="B113" s="56"/>
       <c r="C113" s="56"/>
@@ -4390,7 +4464,7 @@
       <c r="V113" s="56"/>
       <c r="W113" s="57"/>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A114" s="56"/>
       <c r="B114" s="56"/>
       <c r="C114" s="56"/>
@@ -4415,7 +4489,7 @@
       <c r="V114" s="56"/>
       <c r="W114" s="57"/>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A115" s="56"/>
       <c r="B115" s="56"/>
       <c r="C115" s="56"/>
@@ -4440,7 +4514,7 @@
       <c r="V115" s="56"/>
       <c r="W115" s="57"/>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A116" s="56"/>
       <c r="B116" s="56"/>
       <c r="C116" s="56"/>
@@ -4465,7 +4539,7 @@
       <c r="V116" s="56"/>
       <c r="W116" s="57"/>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A117" s="56"/>
       <c r="B117" s="56"/>
       <c r="C117" s="56"/>
@@ -4490,7 +4564,7 @@
       <c r="V117" s="56"/>
       <c r="W117" s="57"/>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A118" s="56"/>
       <c r="B118" s="56"/>
       <c r="C118" s="56"/>
@@ -4515,7 +4589,7 @@
       <c r="V118" s="56"/>
       <c r="W118" s="57"/>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A119" s="56"/>
       <c r="B119" s="56"/>
       <c r="C119" s="56"/>
@@ -4540,7 +4614,7 @@
       <c r="V119" s="56"/>
       <c r="W119" s="57"/>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A120" s="56"/>
       <c r="B120" s="56"/>
       <c r="C120" s="56"/>
@@ -4565,7 +4639,7 @@
       <c r="V120" s="56"/>
       <c r="W120" s="57"/>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A121" s="56"/>
       <c r="B121" s="56"/>
       <c r="C121" s="56"/>
@@ -4590,7 +4664,7 @@
       <c r="V121" s="56"/>
       <c r="W121" s="57"/>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A122" s="56"/>
       <c r="B122" s="56"/>
       <c r="C122" s="56"/>
@@ -4615,7 +4689,7 @@
       <c r="V122" s="56"/>
       <c r="W122" s="57"/>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A123" s="56"/>
       <c r="B123" s="56"/>
       <c r="C123" s="56"/>
@@ -4640,7 +4714,7 @@
       <c r="V123" s="56"/>
       <c r="W123" s="57"/>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A124" s="56"/>
       <c r="B124" s="56"/>
       <c r="C124" s="56"/>
@@ -4665,7 +4739,7 @@
       <c r="V124" s="56"/>
       <c r="W124" s="57"/>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A125" s="56"/>
       <c r="B125" s="56"/>
       <c r="C125" s="56"/>
@@ -4690,7 +4764,7 @@
       <c r="V125" s="56"/>
       <c r="W125" s="57"/>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A126" s="56"/>
       <c r="B126" s="56"/>
       <c r="C126" s="56"/>
@@ -4715,7 +4789,7 @@
       <c r="V126" s="56"/>
       <c r="W126" s="57"/>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A127" s="56"/>
       <c r="B127" s="56"/>
       <c r="C127" s="56"/>
@@ -4740,7 +4814,7 @@
       <c r="V127" s="56"/>
       <c r="W127" s="57"/>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A128" s="56"/>
       <c r="B128" s="56"/>
       <c r="C128" s="56"/>
@@ -4765,7 +4839,7 @@
       <c r="V128" s="56"/>
       <c r="W128" s="57"/>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A129" s="56"/>
       <c r="B129" s="56"/>
       <c r="C129" s="56"/>
@@ -4790,7 +4864,7 @@
       <c r="V129" s="56"/>
       <c r="W129" s="57"/>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A130" s="56"/>
       <c r="B130" s="56"/>
       <c r="C130" s="56"/>
@@ -4815,7 +4889,7 @@
       <c r="V130" s="56"/>
       <c r="W130" s="57"/>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A131" s="56"/>
       <c r="B131" s="56"/>
       <c r="C131" s="56"/>
@@ -4840,7 +4914,7 @@
       <c r="V131" s="56"/>
       <c r="W131" s="57"/>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A132" s="56"/>
       <c r="B132" s="56"/>
       <c r="C132" s="56"/>
@@ -4865,7 +4939,7 @@
       <c r="V132" s="56"/>
       <c r="W132" s="57"/>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A133" s="56"/>
       <c r="B133" s="56"/>
       <c r="C133" s="56"/>
@@ -4890,7 +4964,7 @@
       <c r="V133" s="56"/>
       <c r="W133" s="57"/>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A134" s="56"/>
       <c r="B134" s="56"/>
       <c r="C134" s="56"/>
@@ -4915,7 +4989,7 @@
       <c r="V134" s="56"/>
       <c r="W134" s="57"/>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A135" s="56"/>
       <c r="B135" s="56"/>
       <c r="C135" s="56"/>
@@ -4940,7 +5014,7 @@
       <c r="V135" s="56"/>
       <c r="W135" s="57"/>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A136" s="56"/>
       <c r="B136" s="56"/>
       <c r="C136" s="56"/>
@@ -4961,7 +5035,7 @@
       <c r="R136" s="57"/>
       <c r="W136" s="57"/>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A137" s="56"/>
       <c r="B137" s="56"/>
       <c r="C137" s="56"/>
@@ -4982,7 +5056,7 @@
       <c r="R137" s="57"/>
       <c r="W137" s="57"/>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A138" s="56"/>
       <c r="B138" s="56"/>
       <c r="C138" s="56"/>
@@ -5003,7 +5077,7 @@
       <c r="R138" s="57"/>
       <c r="W138" s="57"/>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A139" s="56"/>
       <c r="B139" s="56"/>
       <c r="C139" s="56"/>
@@ -5024,7 +5098,7 @@
       <c r="R139" s="57"/>
       <c r="W139" s="57"/>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A140" s="56"/>
       <c r="B140" s="56"/>
       <c r="C140" s="56"/>
@@ -5045,7 +5119,7 @@
       <c r="R140" s="57"/>
       <c r="W140" s="57"/>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A141" s="56"/>
       <c r="B141" s="56"/>
       <c r="C141" s="56"/>
@@ -5066,7 +5140,7 @@
       <c r="R141" s="57"/>
       <c r="W141" s="57"/>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A142" s="56"/>
       <c r="B142" s="56"/>
       <c r="C142" s="56"/>
@@ -5087,7 +5161,7 @@
       <c r="R142" s="57"/>
       <c r="W142" s="57"/>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A143" s="56"/>
       <c r="B143" s="56"/>
       <c r="C143" s="56"/>
@@ -5108,7 +5182,7 @@
       <c r="R143" s="57"/>
       <c r="W143" s="57"/>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A144" s="56"/>
       <c r="B144" s="56"/>
       <c r="C144" s="56"/>
@@ -5129,7 +5203,7 @@
       <c r="R144" s="57"/>
       <c r="W144" s="57"/>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A145" s="56"/>
       <c r="B145" s="56"/>
       <c r="C145" s="56"/>
@@ -5150,7 +5224,7 @@
       <c r="R145" s="57"/>
       <c r="W145" s="57"/>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A146" s="56"/>
       <c r="B146" s="56"/>
       <c r="C146" s="56"/>
@@ -5171,7 +5245,7 @@
       <c r="R146" s="57"/>
       <c r="W146" s="57"/>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A147" s="56"/>
       <c r="B147" s="56"/>
       <c r="C147" s="56"/>
@@ -5192,7 +5266,7 @@
       <c r="R147" s="57"/>
       <c r="W147" s="57"/>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A148" s="56"/>
       <c r="B148" s="56"/>
       <c r="C148" s="56"/>
@@ -5213,7 +5287,7 @@
       <c r="R148" s="57"/>
       <c r="W148" s="57"/>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A149" s="56"/>
       <c r="B149" s="56"/>
       <c r="C149" s="56"/>
@@ -5234,7 +5308,7 @@
       <c r="R149" s="57"/>
       <c r="W149" s="57"/>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A150" s="56"/>
       <c r="B150" s="56"/>
       <c r="C150" s="56"/>
@@ -5255,7 +5329,7 @@
       <c r="R150" s="57"/>
       <c r="W150" s="57"/>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A151" s="56"/>
       <c r="B151" s="56"/>
       <c r="C151" s="56"/>
@@ -5276,7 +5350,7 @@
       <c r="R151" s="57"/>
       <c r="W151" s="57"/>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A152" s="56"/>
       <c r="B152" s="56"/>
       <c r="C152" s="56"/>
@@ -5297,7 +5371,7 @@
       <c r="R152" s="57"/>
       <c r="W152" s="57"/>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A153" s="56"/>
       <c r="B153" s="56"/>
       <c r="C153" s="56"/>
@@ -5318,7 +5392,7 @@
       <c r="R153" s="57"/>
       <c r="W153" s="57"/>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A154" s="56"/>
       <c r="B154" s="56"/>
       <c r="C154" s="56"/>
@@ -5339,7 +5413,7 @@
       <c r="R154" s="57"/>
       <c r="W154" s="57"/>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A155" s="56"/>
       <c r="B155" s="56"/>
       <c r="C155" s="56"/>
@@ -5360,7 +5434,7 @@
       <c r="R155" s="57"/>
       <c r="W155" s="57"/>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A156" s="56"/>
       <c r="B156" s="56"/>
       <c r="C156" s="56"/>
@@ -5381,7 +5455,7 @@
       <c r="R156" s="57"/>
       <c r="W156" s="57"/>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A157" s="56"/>
       <c r="B157" s="56"/>
       <c r="C157" s="56"/>
@@ -5402,7 +5476,7 @@
       <c r="R157" s="57"/>
       <c r="W157" s="57"/>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A158" s="56"/>
       <c r="B158" s="56"/>
       <c r="C158" s="56"/>
@@ -5423,7 +5497,7 @@
       <c r="R158" s="57"/>
       <c r="W158" s="57"/>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A159" s="56"/>
       <c r="B159" s="56"/>
       <c r="C159" s="56"/>
@@ -5444,7 +5518,7 @@
       <c r="R159" s="57"/>
       <c r="W159" s="57"/>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A160" s="56"/>
       <c r="B160" s="56"/>
       <c r="C160" s="56"/>
@@ -5465,7 +5539,7 @@
       <c r="R160" s="57"/>
       <c r="W160" s="57"/>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A161" s="56"/>
       <c r="B161" s="56"/>
       <c r="C161" s="56"/>
@@ -5486,7 +5560,7 @@
       <c r="R161" s="57"/>
       <c r="W161" s="57"/>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A162" s="56"/>
       <c r="B162" s="56"/>
       <c r="C162" s="56"/>
@@ -5507,7 +5581,7 @@
       <c r="R162" s="57"/>
       <c r="W162" s="57"/>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A163" s="56"/>
       <c r="B163" s="56"/>
       <c r="C163" s="56"/>
@@ -5528,7 +5602,7 @@
       <c r="R163" s="57"/>
       <c r="W163" s="57"/>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A164" s="56"/>
       <c r="B164" s="56"/>
       <c r="C164" s="56"/>
@@ -5549,7 +5623,7 @@
       <c r="R164" s="57"/>
       <c r="W164" s="57"/>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A165" s="56"/>
       <c r="B165" s="56"/>
       <c r="C165" s="56"/>
@@ -5570,7 +5644,7 @@
       <c r="R165" s="57"/>
       <c r="W165" s="57"/>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A166" s="56"/>
       <c r="B166" s="56"/>
       <c r="C166" s="56"/>
@@ -5591,7 +5665,7 @@
       <c r="R166" s="57"/>
       <c r="W166" s="57"/>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A167" s="56"/>
       <c r="B167" s="56"/>
       <c r="C167" s="56"/>
@@ -5612,7 +5686,7 @@
       <c r="R167" s="57"/>
       <c r="W167" s="57"/>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A168" s="56"/>
       <c r="B168" s="56"/>
       <c r="C168" s="56"/>
@@ -5633,7 +5707,7 @@
       <c r="R168" s="57"/>
       <c r="W168" s="57"/>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A169" s="56"/>
       <c r="B169" s="56"/>
       <c r="C169" s="56"/>
@@ -5654,7 +5728,7 @@
       <c r="R169" s="57"/>
       <c r="W169" s="57"/>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A170" s="56"/>
       <c r="B170" s="56"/>
       <c r="C170" s="56"/>
@@ -5713,14 +5787,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
@@ -5740,7 +5814,7 @@
     <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
@@ -5796,7 +5870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1">
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -5816,7 +5890,7 @@
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1">
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -5836,7 +5910,7 @@
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1">
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -5863,26 +5937,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="60.5" customWidth="1"/>
     <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="80" t="s">
         <v>39</v>
       </c>
@@ -5897,7 +5971,7 @@
       <c r="J1" s="81"/>
       <c r="K1" s="81"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25">
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
@@ -5932,33 +6006,49 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
-    </row>
-    <row r="4" spans="1:11" ht="17.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="82">
+        <v>1</v>
+      </c>
+      <c r="B3" s="82">
+        <v>1</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="91"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="83"/>
       <c r="B4" s="84"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
-    </row>
-    <row r="5" spans="1:11" ht="17.25">
+      <c r="C4" s="86"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="86"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="82"/>
       <c r="B5" s="82"/>
       <c r="C5" s="20"/>
@@ -5971,7 +6061,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25">
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
       <c r="C6" s="20"/>
@@ -5984,7 +6074,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25">
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
       <c r="C7" s="20"/>
@@ -5997,7 +6087,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25">
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="20"/>
@@ -6010,7 +6100,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25">
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="84"/>
       <c r="B9" s="84"/>
       <c r="C9" s="20"/>
@@ -6023,7 +6113,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25">
+    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="83"/>
       <c r="B10" s="83"/>
       <c r="C10" s="20"/>
@@ -6036,7 +6126,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
@@ -6050,27 +6140,37 @@
       <c r="K11" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="14">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6085,39 +6185,39 @@
     <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="98"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6158,7 +6258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6173,7 +6273,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6188,7 +6288,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6203,7 +6303,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6218,7 +6318,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6233,7 +6333,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6248,7 +6348,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6263,7 +6363,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6278,7 +6378,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6293,7 +6393,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6308,7 +6408,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6323,7 +6423,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6338,7 +6438,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6377,14 +6477,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6399,39 +6499,39 @@
     <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="98"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6472,7 +6572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6487,7 +6587,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6502,7 +6602,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6517,7 +6617,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6532,7 +6632,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6547,7 +6647,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6562,7 +6662,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6577,7 +6677,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6592,7 +6692,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6607,7 +6707,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6622,7 +6722,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6637,7 +6737,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6652,7 +6752,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6691,14 +6791,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6713,39 +6813,39 @@
     <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="98"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6786,7 +6886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6801,7 +6901,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6816,7 +6916,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6831,7 +6931,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6846,7 +6946,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6861,7 +6961,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6876,7 +6976,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6891,7 +6991,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6906,7 +7006,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6921,7 +7021,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6936,7 +7036,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6951,7 +7051,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6966,7 +7066,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7005,14 +7105,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -7029,39 +7129,39 @@
     <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="98"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7102,7 +7202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7117,7 +7217,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7132,7 +7232,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7147,7 +7247,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7162,7 +7262,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7177,7 +7277,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7192,7 +7292,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7207,7 +7307,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7222,7 +7322,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7237,7 +7337,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7252,7 +7352,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7267,7 +7367,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7282,7 +7382,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7321,14 +7421,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -7339,7 +7439,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -7365,7 +7465,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7375,7 +7475,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -7385,7 +7485,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -7395,7 +7495,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -7405,7 +7505,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -7415,7 +7515,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -7425,7 +7525,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -7435,7 +7535,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -7445,7 +7545,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -7455,7 +7555,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -7465,7 +7565,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -7475,7 +7575,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7485,7 +7585,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7495,7 +7595,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7505,7 +7605,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7515,7 +7615,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -7525,7 +7625,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -7535,7 +7635,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>

--- a/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7_EQ组.xlsx
+++ b/VersionRecords/Version 5.3.7 20170406/版本Bug和特性计划及评审表v5.3.7_EQ组.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRepertory\Mogo_Doc\VersionRecords\Version 5.3.7 20170406\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository\Mogo_Doc\VersionRecords\Version 5.3.7 20170406\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="2700" windowWidth="35775" windowHeight="15825" activeTab="2"/>
+    <workbookView xWindow="29880" yWindow="2700" windowWidth="35775" windowHeight="15825"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.7 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="99">
   <si>
     <t>No</t>
   </si>
@@ -371,6 +371,28 @@
   </si>
   <si>
     <t>上线后执行此脚本</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>增加查询Idfa的接口</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterApp</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄展明</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>野帝组</t>
+  </si>
+  <si>
+    <t>FN-797</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -1475,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1701,25 +1723,55 @@
       <c r="X3" s="73"/>
     </row>
     <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
+      <c r="A4" s="51">
+        <v>3</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="59">
+        <v>42831</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="59">
+        <v>42831</v>
+      </c>
       <c r="K4" s="58"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
+      <c r="L4" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>75</v>
+      </c>
       <c r="O4" s="58"/>
       <c r="P4" s="62"/>
       <c r="Q4" s="59"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="56"/>
+      <c r="R4" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="S4" s="67" t="s">
+        <v>98</v>
+      </c>
       <c r="T4" s="56"/>
       <c r="U4" s="56"/>
       <c r="V4" s="67"/>
@@ -5773,7 +5825,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 G1:G1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5940,7 +5992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3:K4"/>
     </sheetView>
   </sheetViews>
